--- a/dist/document/dest/2020/10/chi lam/87_ltq.xlsx
+++ b/dist/document/dest/2020/10/chi lam/87_ltq.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Lê Trọng Quý</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 87</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,7 +46,7 @@
     <t>CK</t>
   </si>
   <si>
-    <t>Uvomo</t>
+    <t>Uvom*</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -581,19 +581,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>975</v>
+        <v>1329</v>
       </c>
       <c r="D6" s="10">
         <v>3300</v>
       </c>
       <c r="E6" s="10">
-        <v>3217500</v>
+        <v>4385700</v>
       </c>
       <c r="F6" s="10">
         <v>50</v>
       </c>
       <c r="G6" s="10">
-        <v>1608750</v>
+        <v>2192850</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -602,15 +602,15 @@
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="11">
-        <v>975</v>
+        <v>1329</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11">
-        <v>3217500</v>
+        <v>4385700</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11">
-        <v>1608750</v>
+        <v>2192850</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
